--- a/template_task.xlsx
+++ b/template_task.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thái Hưng\IT\cybersoft\Session7-8-9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thái Hưng\IT\cybersoft\Session7-8-9\BC64_Bootstrap_Capstone_ThaiHung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D26E560-2620-4DA9-8871-0E3EAEB64BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E03F58C-0F0D-4528-A801-20B4F0427CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>19/11</t>
   </si>
   <si>
-    <t>25/11</t>
+    <t>24/11</t>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
   <dimension ref="A1:J986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -2138,12 +2138,12 @@
     <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="D2 D4:D19">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H19">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
